--- a/IT_time.xlsx
+++ b/IT_time.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749869B-762D-4AFD-91A9-29B3B39D4F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="284">
   <si>
     <t>20 травня 2021 р.</t>
   </si>
@@ -812,43 +813,76 @@
     <t>29 грудня 2021</t>
   </si>
   <si>
-    <t>3[d</t>
-  </si>
-  <si>
     <t>30 грудня 2021</t>
   </si>
   <si>
     <t>31 грудня 2021</t>
   </si>
   <si>
-    <t>1 грудня 2022</t>
-  </si>
-  <si>
-    <t>2 грудня 2022</t>
-  </si>
-  <si>
-    <t>3 грудня 2022</t>
-  </si>
-  <si>
     <t>ціль: за січень</t>
   </si>
   <si>
-    <t>4 грудня 2022</t>
-  </si>
-  <si>
-    <t>5 грудня 2022</t>
-  </si>
-  <si>
     <t>11 січня</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ZYPqPoijCAQ</t>
+  </si>
+  <si>
+    <t>1 січня 2022</t>
+  </si>
+  <si>
+    <t>2 січня 2022</t>
+  </si>
+  <si>
+    <t>3 січня 2022</t>
+  </si>
+  <si>
+    <t>4 січня 2022</t>
+  </si>
+  <si>
+    <t>5 січня 2022</t>
+  </si>
+  <si>
+    <t>6 січня</t>
+  </si>
+  <si>
+    <t>7 січня</t>
+  </si>
+  <si>
+    <t>8 січня</t>
+  </si>
+  <si>
+    <t>9 січня</t>
+  </si>
+  <si>
+    <t>10 січня</t>
+  </si>
+  <si>
+    <t>12 січня</t>
+  </si>
+  <si>
+    <t>13 січня</t>
+  </si>
+  <si>
+    <t>14 січня</t>
+  </si>
+  <si>
+    <t>15 січня</t>
+  </si>
+  <si>
+    <t>16 січня</t>
+  </si>
+  <si>
+    <t>17 січня</t>
+  </si>
+  <si>
+    <t>18 січня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -969,6 +1003,7 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1060,9 +1095,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$E$5:$E$208</c:f>
+              <c:f>Лист1!$E$5:$E$243</c:f>
               <c:strCache>
-                <c:ptCount val="204"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>20 травня 2021 р.</c:v>
                 </c:pt>
@@ -1674,16 +1709,121 @@
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>12 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>13 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>14 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>15 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>16 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>17 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>18 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>19 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>20 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>21 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>22 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>23 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>24 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>25 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>26 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>27 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>28 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>29 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>30 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>31 грудня 2021</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1 січня 2022</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2 січня 2022</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>3 січня 2022</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4 січня 2022</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>5 січня 2022</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6 січня</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7 січня</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>8 січня</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>9 січня</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>10 січня</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11 січня</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12 січня</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>13 січня</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14 січня</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>15 січня</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>16 січня</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$5:$F$208</c:f>
+              <c:f>Лист1!$F$5:$F$243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="204"/>
+                <c:ptCount val="239"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2295,6 +2435,111 @@
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3276,11 +3521,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L238"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F246" sqref="F246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,7 +3897,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B25" s="2">
         <v>4000</v>
@@ -3670,7 +3915,7 @@
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f>B27/B25</f>
-        <v>0.155</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="D26">
         <v>22</v>
@@ -3684,8 +3929,8 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <f>SUM(F228:F231)</f>
-        <v>620</v>
+        <f>SUM(F228:F244)</f>
+        <v>2595</v>
       </c>
       <c r="D27">
         <v>23</v>
@@ -6007,7 +6252,7 @@
         <v>222</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F226" s="2">
         <v>160</v>
@@ -6018,87 +6263,224 @@
         <v>223</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F227" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="228" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D228">
         <v>224</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>265</v>
+      <c r="E228" t="s">
+        <v>267</v>
       </c>
       <c r="F228" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D229">
         <v>225</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>266</v>
+      <c r="E229" t="s">
+        <v>268</v>
       </c>
       <c r="F229" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="230" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D230">
         <v>226</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>267</v>
+      <c r="E230" t="s">
+        <v>269</v>
       </c>
       <c r="F230" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="231" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D231">
         <v>227</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>269</v>
+      <c r="E231" t="s">
+        <v>270</v>
       </c>
       <c r="F231" s="2">
         <v>155</v>
       </c>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E232" s="1" t="s">
-        <v>270</v>
+    <row r="232" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>228</v>
+      </c>
+      <c r="E232" t="s">
+        <v>271</v>
       </c>
       <c r="F232" s="2">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F233" s="9" t="s">
-        <v>262</v>
+      <c r="D233">
+        <v>229</v>
+      </c>
+      <c r="E233" t="s">
+        <v>272</v>
+      </c>
+      <c r="F233" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="234" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F234" s="9"/>
+      <c r="D234">
+        <v>230</v>
+      </c>
+      <c r="E234" t="s">
+        <v>273</v>
+      </c>
+      <c r="F234" s="2">
+        <v>125</v>
+      </c>
       <c r="H234" s="3"/>
     </row>
+    <row r="235" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>231</v>
+      </c>
+      <c r="E235" t="s">
+        <v>274</v>
+      </c>
+      <c r="F235" s="2">
+        <v>210</v>
+      </c>
+    </row>
     <row r="236" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>232</v>
+      </c>
       <c r="E236" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F236" s="2">
-        <v>170</v>
-      </c>
-      <c r="G236" t="s">
-        <v>272</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="237" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>233</v>
+      </c>
+      <c r="E237" t="s">
+        <v>276</v>
+      </c>
+      <c r="F237" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="238" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="F238" s="9"/>
+      <c r="D238">
+        <v>234</v>
+      </c>
+      <c r="E238" t="s">
+        <v>265</v>
+      </c>
+      <c r="F238" s="2">
+        <v>210</v>
+      </c>
+      <c r="G238" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="239" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>235</v>
+      </c>
+      <c r="E239" t="s">
+        <v>277</v>
+      </c>
+      <c r="F239" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>236</v>
+      </c>
+      <c r="E240" t="s">
+        <v>278</v>
+      </c>
+      <c r="F240" s="2">
+        <v>185</v>
+      </c>
+      <c r="G240" s="16"/>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>237</v>
+      </c>
+      <c r="E241" t="s">
+        <v>279</v>
+      </c>
+      <c r="F241" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>238</v>
+      </c>
+      <c r="E242" t="s">
+        <v>280</v>
+      </c>
+      <c r="F242" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>239</v>
+      </c>
+      <c r="E243" t="s">
+        <v>281</v>
+      </c>
+      <c r="F243" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>240</v>
+      </c>
+      <c r="E244" t="s">
+        <v>282</v>
+      </c>
+      <c r="F244" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>241</v>
+      </c>
+      <c r="E245" t="s">
+        <v>283</v>
+      </c>
+      <c r="F245" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="9"/>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F247" s="9"/>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F248" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/IT_time.xlsx
+++ b/IT_time.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749869B-762D-4AFD-91A9-29B3B39D4F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="285">
   <si>
     <t>20 травня 2021 р.</t>
   </si>
@@ -877,12 +876,15 @@
   </si>
   <si>
     <t>18 січня</t>
+  </si>
+  <si>
+    <t>19 січня</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3521,11 +3523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F246" sqref="F246"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,7 +3917,7 @@
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f>B27/B25</f>
-        <v>0.64875000000000005</v>
+        <v>0.70874999999999999</v>
       </c>
       <c r="D26">
         <v>22</v>
@@ -3929,8 +3931,8 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <f>SUM(F228:F244)</f>
-        <v>2595</v>
+        <f>SUM(F228:F246)</f>
+        <v>2835</v>
       </c>
       <c r="D27">
         <v>23</v>
@@ -6474,7 +6476,15 @@
       </c>
     </row>
     <row r="246" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F246" s="9"/>
+      <c r="D246">
+        <v>242</v>
+      </c>
+      <c r="E246" t="s">
+        <v>284</v>
+      </c>
+      <c r="F246" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F247" s="9"/>

--- a/IT_time.xlsx
+++ b/IT_time.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1887F704-E456-4494-8ADF-94CF56D8A54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -884,7 +885,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3523,10 +3524,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A236" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
@@ -3917,7 +3918,7 @@
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
         <f>B27/B25</f>
-        <v>0.70874999999999999</v>
+        <v>0.72375</v>
       </c>
       <c r="D26">
         <v>22</v>
@@ -3932,7 +3933,7 @@
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <f>SUM(F228:F246)</f>
-        <v>2835</v>
+        <v>2895</v>
       </c>
       <c r="D27">
         <v>23</v>
@@ -6483,7 +6484,7 @@
         <v>284</v>
       </c>
       <c r="F246" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="247" spans="4:6" x14ac:dyDescent="0.25">
